--- a/悖论模拟-整理后/悖论模拟干员名单.xlsx
+++ b/悖论模拟-整理后/悖论模拟干员名单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D034AA-7CFE-4D8E-868A-B1547787B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECBE3CA-C56A-4B39-AEF2-751BCBB06F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4335" yWindow="3645" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2946,11 +2946,11 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>62</v>
@@ -3294,7 +3294,7 @@
         <v>75</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>165</v>

--- a/悖论模拟-整理后/悖论模拟干员名单.xlsx
+++ b/悖论模拟-整理后/悖论模拟干员名单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECBE3CA-C56A-4B39-AEF2-751BCBB06F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED7E769-D447-48DF-995B-9FD27A203212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4335" yWindow="3645" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="299">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2836,7 +2836,7 @@
         <v>259</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>286</v>
@@ -3165,8 +3165,8 @@
       <c r="M34" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>294</v>
+      <c r="N34" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.2">

--- a/悖论模拟-整理后/悖论模拟干员名单.xlsx
+++ b/悖论模拟-整理后/悖论模拟干员名单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED7E769-D447-48DF-995B-9FD27A203212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69E80C8-4B19-49D9-B8F3-ACCE77A22E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4335" yWindow="3645" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1565,7 +1565,7 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2446,11 +2446,11 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>52</v>

--- a/悖论模拟-整理后/悖论模拟干员名单.xlsx
+++ b/悖论模拟-整理后/悖论模拟干员名单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69E80C8-4B19-49D9-B8F3-ACCE77A22E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1B9E7-1F89-41C7-AE17-C10191203502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4335" yWindow="3645" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="299">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1649,8 +1649,8 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>294</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
@@ -2318,7 +2318,7 @@
         <v>139</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>184</v>
@@ -3259,8 +3259,8 @@
       <c r="J39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>294</v>
+      <c r="K39" s="1">
+        <v>1</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>208</v>

--- a/悖论模拟-整理后/悖论模拟干员名单.xlsx
+++ b/悖论模拟-整理后/悖论模拟干员名单.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1B9E7-1F89-41C7-AE17-C10191203502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4948CEF8-A75F-4953-BA4E-19FF505D2C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="3645" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="4980" windowWidth="28800" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="299">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1861,8 +1861,8 @@
       <c r="G6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>294</v>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>130</v>
@@ -2092,7 +2092,7 @@
         <v>271</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -2199,8 +2199,8 @@
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>294</v>
+      <c r="B13" s="1">
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>47</v>

--- a/悖论模拟-整理后/悖论模拟干员名单.xlsx
+++ b/悖论模拟-整理后/悖论模拟干员名单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4948CEF8-A75F-4953-BA4E-19FF505D2C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BF3149-AABC-4F9B-8A3C-E6DE7738919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="4980" windowWidth="28800" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="299">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1565,7 +1565,7 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1908,11 +1908,11 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>131</v>
@@ -2036,7 +2036,7 @@
         <v>243</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>270</v>
@@ -2418,7 +2418,7 @@
         <v>141</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>186</v>
@@ -2550,7 +2550,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>54</v>
@@ -2990,11 +2990,11 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>121</v>
@@ -3469,8 +3469,8 @@
       <c r="D57" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>294</v>
+      <c r="E57" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.2">

--- a/悖论模拟-整理后/悖论模拟干员名单.xlsx
+++ b/悖论模拟-整理后/悖论模拟干员名单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BF3149-AABC-4F9B-8A3C-E6DE7738919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDCB586-01EC-4C74-BB70-24CE3E306B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="4980" windowWidth="28800" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1565,7 +1565,7 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2674,7 +2674,7 @@
         <v>191</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>230</v>
